--- a/sources/Icelandic_data.xlsx
+++ b/sources/Icelandic_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1408" uniqueCount="777">
   <si>
     <t>language_no</t>
   </si>
@@ -2019,87 +2019,51 @@
     <t>DAT_iDAT</t>
   </si>
   <si>
-    <t>NV (ADJ). Это второй вариант, который был предложен наряду с композитом (букв. "быть с головоболью"), который я не могу засчитать.</t>
-  </si>
-  <si>
     <t>medACC</t>
   </si>
   <si>
     <t>NOM_medACC</t>
   </si>
   <si>
-    <t>Букв. "быть"</t>
-  </si>
-  <si>
     <t>vidACC</t>
   </si>
   <si>
     <t>NOM_vidACC</t>
   </si>
   <si>
-    <t>NV (ADJ)</t>
-  </si>
-  <si>
     <t>NOM_DAT</t>
   </si>
   <si>
     <t>Только "имеет [достаточно денег]", где деньги вложены в ИГ</t>
   </si>
   <si>
-    <t>Есть еще альтернатива (er líkur), это неглагольный предикат (тоже NOM_DAT)</t>
-  </si>
-  <si>
     <t>aACC</t>
   </si>
   <si>
     <t>NOM_aACC</t>
   </si>
   <si>
-    <t>CV. Это букв. "иметь влияние на…"; не совсем понятно, как устроена структура составляющих</t>
-  </si>
-  <si>
-    <t>Это буквально "бежать"</t>
-  </si>
-  <si>
     <t>iACC</t>
   </si>
   <si>
     <t>NOM_iACC</t>
   </si>
   <si>
-    <t>Phrasal verb</t>
-  </si>
-  <si>
     <t>urDAT</t>
   </si>
   <si>
     <t>NOM_urDAT</t>
   </si>
   <si>
-    <t>Букв. "went out"</t>
-  </si>
-  <si>
     <t>Это инфинитив, т.к. тут аналитическая конструкция</t>
   </si>
   <si>
-    <t>То же, что 21</t>
-  </si>
-  <si>
-    <t>То же, что 19</t>
-  </si>
-  <si>
-    <t>Этот глагол буквально значит 'приходить'. Есть еще второй вариант перевода (snerti), там TR. Выбранный вариант гораздо частотнее.</t>
-  </si>
-  <si>
     <t>GEN</t>
   </si>
   <si>
     <t>NOM_GEN</t>
   </si>
   <si>
-    <t>NV (NP). Только приименное зависимое (друг Y-а)</t>
-  </si>
-  <si>
     <t>umACC</t>
   </si>
   <si>
@@ -2112,18 +2076,12 @@
     <t>NOM_eftirDAT</t>
   </si>
   <si>
-    <t>REFL</t>
-  </si>
-  <si>
     <t>adDAT</t>
   </si>
   <si>
     <t>NOM_adDAT</t>
   </si>
   <si>
-    <t>CV (make fun). Это инфинитив, т.к. тут аналитическая конструкция</t>
-  </si>
-  <si>
     <t>То же, что 86</t>
   </si>
   <si>
@@ -2136,18 +2094,9 @@
     <t>ACC_umACC</t>
   </si>
   <si>
-    <t>Quirky subject alternation: ACC vs. DAT. Первая опция частотнее. Тот же глагол, что 97</t>
-  </si>
-  <si>
-    <t>Букв. "went into"</t>
-  </si>
-  <si>
     <t>NOM_NOM</t>
   </si>
   <si>
-    <t>Пассив. Есть еще вариант heitir, это актив, та же модель</t>
-  </si>
-  <si>
     <t>afDAT</t>
   </si>
   <si>
@@ -2157,15 +2106,9 @@
     <t>ACC_ACC</t>
   </si>
   <si>
-    <t>То же, что в 59. Quirky subject alternation: ACC vs. DAT</t>
-  </si>
-  <si>
     <t>DAT_NOM</t>
   </si>
   <si>
-    <t>То же, что в 56. Quirky subject alternation: ACC vs. DAT</t>
-  </si>
-  <si>
     <t>букв. "has … left"</t>
   </si>
   <si>
@@ -2175,78 +2118,30 @@
     <t>NOM_yfirACC</t>
   </si>
   <si>
-    <t>Букв. "went across"</t>
-  </si>
-  <si>
-    <t>NV (PP; букв. "быть в стиле")</t>
-  </si>
-  <si>
-    <t>Phrasal verb ("struck down")</t>
-  </si>
-  <si>
     <t>medDAT</t>
   </si>
   <si>
     <t>NOM_medDAT</t>
   </si>
   <si>
-    <t>Возвратное местоимение</t>
-  </si>
-  <si>
     <t>fyrirDAT</t>
   </si>
   <si>
     <t>NOM_fyrirDAT</t>
   </si>
   <si>
-    <t>NV (ADJ) То же, что 112</t>
-  </si>
-  <si>
     <t>То же, что 42</t>
   </si>
   <si>
     <t>NOM_iDAT</t>
   </si>
   <si>
-    <t>CV ('goes with power')</t>
-  </si>
-  <si>
-    <t>Phrasal verb (stepped down)</t>
-  </si>
-  <si>
-    <t>Это инфинитив, т.к. тут аналитическая конструкция. То же, что 92.</t>
-  </si>
-  <si>
-    <t>Это obey; еще есть вариант употребить глагол "слушать" (тот же, что в 91)</t>
-  </si>
-  <si>
-    <t>Еще в переводе употреблено слово saman, отглоссированное как "together", не знаю, каков точно его статус</t>
-  </si>
-  <si>
-    <t>Букв. "went out of"</t>
-  </si>
-  <si>
-    <t>Тот же глагол, что 48</t>
-  </si>
-  <si>
-    <t>NV</t>
-  </si>
-  <si>
     <t>vidDAT</t>
   </si>
   <si>
     <t>NOM_vidDAT</t>
   </si>
   <si>
-    <t>NV (ADJ) То же, что 83</t>
-  </si>
-  <si>
-    <t>CV (decome enamoured)</t>
-  </si>
-  <si>
-    <t>Phrasal verb ('feels to')</t>
-  </si>
-  <si>
     <t>yfirDAT</t>
   </si>
   <si>
@@ -2256,73 +2151,208 @@
     <t>То же, что 46</t>
   </si>
   <si>
-    <t>CV ('considers good')</t>
-  </si>
-  <si>
     <t>ACC_iACC</t>
   </si>
   <si>
-    <t>Quirky subject alternation: ACC vs. DAT</t>
-  </si>
-  <si>
     <t>No adequate translation.</t>
   </si>
   <si>
-    <t>CV ('got Y in much agitation'). Почти то же, что 127 (но не REFL)</t>
-  </si>
-  <si>
-    <t>Переводы marvel/admire</t>
-  </si>
-  <si>
     <t>vegnaGEN</t>
   </si>
   <si>
     <t>NOM_vegnaGEN</t>
   </si>
   <si>
-    <t>REFL. CV ('got in agitation'). Почти то же, что 124 (но REFL)</t>
-  </si>
-  <si>
     <t>aDAT</t>
   </si>
   <si>
     <t>NOM_aDAT</t>
   </si>
   <si>
-    <t>CV ('become irritated'). Это инфинитив, т.к. тут аналитическая конструкция. То же, что 92.</t>
-  </si>
-  <si>
-    <t>CV ('goes by himself')</t>
-  </si>
-  <si>
-    <t>íDAT</t>
-  </si>
-  <si>
-    <t>meðACC</t>
-  </si>
-  <si>
-    <t>viðACC</t>
-  </si>
-  <si>
-    <t>áACC</t>
-  </si>
-  <si>
-    <t>íACC</t>
-  </si>
-  <si>
-    <t>úrDAT</t>
-  </si>
-  <si>
-    <t>aðDAT</t>
-  </si>
-  <si>
-    <t>meðDAT</t>
-  </si>
-  <si>
-    <t>viðDAT</t>
-  </si>
-  <si>
-    <t>áDAT</t>
+    <t>Actual form = íDAT. NV (ADJ). Это второй вариант, который был предложен наряду с композитом (букв. "быть с головоболью"), который я не могу засчитать.</t>
+  </si>
+  <si>
+    <t>Actual form = meðACC. Букв. "быть"</t>
+  </si>
+  <si>
+    <t>Actual form = viðACC. NV (ADJ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual form = DAT. </t>
+  </si>
+  <si>
+    <t>Actual form = DAT. Есть еще альтернатива (er líkur), это неглагольный предикат (тоже NOM_DAT)</t>
+  </si>
+  <si>
+    <t>Actual form = áACC. CV. Это букв. "иметь влияние на…"; не совсем понятно, как устроена структура составляющих</t>
+  </si>
+  <si>
+    <t>Actual form = áACC. Это буквально "бежать"</t>
+  </si>
+  <si>
+    <t>Actual form = íACC. Phrasal verb</t>
+  </si>
+  <si>
+    <t>Actual form = úrDAT. Букв. "went out"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual form = viðACC. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual form = áACC. </t>
+  </si>
+  <si>
+    <t>Actual form = DAT. То же, что 21</t>
+  </si>
+  <si>
+    <t>Actual form = DAT. То же, что 19</t>
+  </si>
+  <si>
+    <t>Actual form = viðACC. Этот глагол буквально значит 'приходить'. Есть еще второй вариант перевода (snerti), там TR. Выбранный вариант гораздо частотнее.</t>
+  </si>
+  <si>
+    <t>Actual form = viðACC. Это инфинитив, т.к. тут аналитическая конструкция</t>
+  </si>
+  <si>
+    <t>Actual form = GEN. NV (NP). Только приименное зависимое (друг Y-а)</t>
+  </si>
+  <si>
+    <t>Actual form = umACC. Это инфинитив, т.к. тут аналитическая конструкция</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual form = eftirDAT. </t>
+  </si>
+  <si>
+    <t>Actual form = DAT. NV (ADJ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual form = íACC. </t>
+  </si>
+  <si>
+    <t>Actual form = DAT. REFL</t>
+  </si>
+  <si>
+    <t>Actual form = áACC. Это инфинитив, т.к. тут аналитическая конструкция</t>
+  </si>
+  <si>
+    <t>Actual form = aðDAT. CV (make fun). Это инфинитив, т.к. тут аналитическая конструкция</t>
+  </si>
+  <si>
+    <t>Actual form = aðDAT. Это инфинитив, т.к. тут аналитическая конструкция</t>
+  </si>
+  <si>
+    <t>Actual form = umACC. Quirky subject alternation: ACC vs. DAT. Первая опция частотнее. Тот же глагол, что 97</t>
+  </si>
+  <si>
+    <t>Actual form = íACC. Букв. "went into"</t>
+  </si>
+  <si>
+    <t>Actual form = NOM. Пассив. Есть еще вариант heitir, это актив, та же модель</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual form = afDAT. </t>
+  </si>
+  <si>
+    <t>Actual form = ACC. То же, что в 59. Quirky subject alternation: ACC vs. DAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual form = NOM. </t>
+  </si>
+  <si>
+    <t>Actual form = ACC. То же, что в 56. Quirky subject alternation: ACC vs. DAT</t>
+  </si>
+  <si>
+    <t>Actual form = úrDAT. Phrasal verb</t>
+  </si>
+  <si>
+    <t>Actual form = yfirACC. Букв. "went across"</t>
+  </si>
+  <si>
+    <t>Actual form = viðACC. NV (PP; букв. "быть в стиле")</t>
+  </si>
+  <si>
+    <t>Actual form = íACC. Phrasal verb ("struck down")</t>
+  </si>
+  <si>
+    <t>Actual form = meðDAT. Возвратное местоимение</t>
+  </si>
+  <si>
+    <t>Actual form = viðACC. REFL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual form = fyrirDAT. </t>
+  </si>
+  <si>
+    <t>Actual form = meðACC. NV (ADJ) То же, что 112</t>
+  </si>
+  <si>
+    <t>Actual form = íDAT. CV ('goes with power')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual form = GEN. </t>
+  </si>
+  <si>
+    <t>Actual form = afDAT. Phrasal verb (stepped down)</t>
+  </si>
+  <si>
+    <t>Actual form = áACC. Это инфинитив, т.к. тут аналитическая конструкция. То же, что 92.</t>
+  </si>
+  <si>
+    <t>Actual form = DAT. Это obey; еще есть вариант употребить глагол "слушать" (тот же, что в 91)</t>
+  </si>
+  <si>
+    <t>Actual form = viðACC. Еще в переводе употреблено слово saman, отглоссированное как "together", не знаю, каков точно его статус</t>
+  </si>
+  <si>
+    <t>Actual form = úrDAT. Букв. "went out of"</t>
+  </si>
+  <si>
+    <t>Actual form = ACC. Тот же глагол, что 48</t>
+  </si>
+  <si>
+    <t>Actual form = DAT. NV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual form = viðDAT. </t>
+  </si>
+  <si>
+    <t>Actual form = meðACC. NV (ADJ) То же, что 83</t>
+  </si>
+  <si>
+    <t>Actual form = afDAT. CV (decome enamoured)</t>
+  </si>
+  <si>
+    <t>Actual form = meðDAT. Phrasal verb ('feels to')</t>
+  </si>
+  <si>
+    <t>Actual form = viðACC. NV</t>
+  </si>
+  <si>
+    <t>Actual form = yfirDAT. NV</t>
+  </si>
+  <si>
+    <t>Actual form = NOM. CV ('considers good')</t>
+  </si>
+  <si>
+    <t>Actual form = íACC. Quirky subject alternation: ACC vs. DAT</t>
+  </si>
+  <si>
+    <t>Actual form = DAT. CV ('got Y in much agitation'). Почти то же, что 127 (но не REFL)</t>
+  </si>
+  <si>
+    <t>Actual form = aðDAT. Переводы marvel/admire</t>
+  </si>
+  <si>
+    <t>Actual form = vegnaGEN. REFL. CV ('got in agitation'). Почти то же, что 124 (но REFL)</t>
+  </si>
+  <si>
+    <t>Actual form = umACC. NV</t>
+  </si>
+  <si>
+    <t>Actual form = vegnaGEN. CV ('goes by himself')</t>
+  </si>
+  <si>
+    <t>Actual form = áDAT. CV ('become irritated'). Это инфинитив, т.к. тут аналитическая конструкция. То же, что 92. Check if by any chance "á" is the same preposition as "að"</t>
   </si>
 </sst>
 </file>
@@ -2697,9 +2727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2820,16 +2848,14 @@
       <c r="L2" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>665</v>
-      </c>
+      <c r="M2" s="5"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5" t="s">
-        <v>757</v>
+        <v>715</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -2861,24 +2887,22 @@
         <v>539</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>667</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>668</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
       <c r="S3" s="5" t="s">
-        <v>758</v>
+        <v>716</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -2910,24 +2934,22 @@
         <v>539</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>671</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5" t="s">
-        <v>759</v>
+        <v>717</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -2965,7 +2987,7 @@
         <v>9</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -2974,7 +2996,7 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="5" t="s">
-        <v>537</v>
+        <v>718</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3005,20 +3027,22 @@
       <c r="I6" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="J6" s="5"/>
+      <c r="J6" s="5" t="s">
+        <v>543</v>
+      </c>
       <c r="K6" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L6" s="5"/>
-      <c r="M6" s="5" t="s">
-        <v>673</v>
-      </c>
+      <c r="M6" s="5"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
+      <c r="S6" s="5" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="7" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
@@ -3055,18 +3079,16 @@
         <v>9</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>672</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>674</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
       <c r="R7" s="5"/>
       <c r="S7" s="5" t="s">
-        <v>537</v>
+        <v>719</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3104,7 +3126,7 @@
         <v>9</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -3113,7 +3135,7 @@
       <c r="Q8" s="5"/>
       <c r="R8" s="5"/>
       <c r="S8" s="5" t="s">
-        <v>537</v>
+        <v>718</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3142,9 +3164,11 @@
         <v>546</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J9" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K9" s="5" t="s">
         <v>547</v>
       </c>
@@ -3157,7 +3181,9 @@
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
       <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
+      <c r="S9" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
@@ -3185,9 +3211,11 @@
         <v>548</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J10" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K10" s="5" t="s">
         <v>547</v>
       </c>
@@ -3200,7 +3228,9 @@
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
       <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
+      <c r="S10" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
@@ -3231,24 +3261,22 @@
         <v>539</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>676</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>677</v>
-      </c>
+        <v>672</v>
+      </c>
+      <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
       <c r="Q11" s="5"/>
       <c r="R11" s="5"/>
       <c r="S11" s="5" t="s">
-        <v>760</v>
+        <v>720</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3280,24 +3308,22 @@
         <v>539</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>676</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>678</v>
-      </c>
+        <v>672</v>
+      </c>
+      <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="5" t="s">
-        <v>760</v>
+        <v>721</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3329,24 +3355,22 @@
         <v>539</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>681</v>
-      </c>
+        <v>674</v>
+      </c>
+      <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="5" t="s">
-        <v>761</v>
+        <v>722</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3375,9 +3399,11 @@
         <v>552</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J14" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K14" s="5" t="s">
         <v>547</v>
       </c>
@@ -3390,7 +3416,9 @@
       <c r="P14" s="5"/>
       <c r="Q14" s="5"/>
       <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
+      <c r="S14" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
@@ -3421,24 +3449,22 @@
         <v>539</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>683</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>684</v>
-      </c>
+        <v>676</v>
+      </c>
+      <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5" t="s">
-        <v>762</v>
+        <v>723</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3467,24 +3493,26 @@
         <v>554</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J16" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K16" s="5" t="s">
         <v>547</v>
       </c>
       <c r="L16" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>685</v>
-      </c>
+      <c r="M16" s="5"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
+      <c r="S16" s="5" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="17" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
@@ -3512,9 +3540,11 @@
         <v>555</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J17" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K17" s="5" t="s">
         <v>547</v>
       </c>
@@ -3527,7 +3557,9 @@
       <c r="P17" s="5"/>
       <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
+      <c r="S17" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
@@ -3558,13 +3590,13 @@
         <v>539</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -3573,7 +3605,7 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5" t="s">
-        <v>759</v>
+        <v>724</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3605,13 +3637,13 @@
         <v>539</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
@@ -3620,7 +3652,7 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5" t="s">
-        <v>760</v>
+        <v>725</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3658,18 +3690,16 @@
         <v>9</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>672</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>686</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
       <c r="Q20" s="5"/>
       <c r="R20" s="5"/>
       <c r="S20" s="5" t="s">
-        <v>537</v>
+        <v>726</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3698,9 +3728,11 @@
         <v>559</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J21" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K21" s="5" t="s">
         <v>547</v>
       </c>
@@ -3713,7 +3745,9 @@
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="5"/>
+      <c r="S21" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
@@ -3750,18 +3784,16 @@
         <v>9</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>672</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>687</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
       <c r="P22" s="5"/>
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="S22" s="5" t="s">
-        <v>537</v>
+        <v>727</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3793,24 +3825,22 @@
         <v>539</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>688</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
       <c r="R23" s="5"/>
       <c r="S23" s="5" t="s">
-        <v>759</v>
+        <v>728</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3842,24 +3872,22 @@
         <v>539</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>685</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="5"/>
       <c r="Q24" s="5"/>
       <c r="R24" s="5"/>
       <c r="S24" s="5" t="s">
-        <v>759</v>
+        <v>729</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3891,24 +3919,22 @@
         <v>539</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>691</v>
-      </c>
+        <v>679</v>
+      </c>
+      <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
       <c r="P25" s="5"/>
       <c r="Q25" s="5"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5" t="s">
-        <v>689</v>
+        <v>730</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3940,24 +3966,22 @@
         <v>539</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>685</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5" t="s">
-        <v>692</v>
+        <v>731</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -3986,9 +4010,11 @@
         <v>564</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J27" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K27" s="5" t="s">
         <v>547</v>
       </c>
@@ -4001,7 +4027,9 @@
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
       <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
+      <c r="S27" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
@@ -4029,9 +4057,11 @@
         <v>565</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J28" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K28" s="5" t="s">
         <v>547</v>
       </c>
@@ -4044,7 +4074,9 @@
       <c r="P28" s="5"/>
       <c r="Q28" s="5"/>
       <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
+      <c r="S28" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
@@ -4075,13 +4107,13 @@
         <v>539</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -4090,7 +4122,7 @@
       <c r="Q29" s="5"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5" t="s">
-        <v>694</v>
+        <v>732</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4128,7 +4160,7 @@
         <v>9</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
@@ -4137,7 +4169,7 @@
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5" t="s">
-        <v>537</v>
+        <v>718</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4175,18 +4207,16 @@
         <v>9</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>672</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>671</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="M31" s="5"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="5"/>
       <c r="Q31" s="5"/>
       <c r="R31" s="5"/>
       <c r="S31" s="5" t="s">
-        <v>537</v>
+        <v>733</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4218,13 +4248,13 @@
         <v>539</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
@@ -4233,7 +4263,7 @@
       <c r="Q32" s="5"/>
       <c r="R32" s="5"/>
       <c r="S32" s="5" t="s">
-        <v>761</v>
+        <v>734</v>
       </c>
     </row>
     <row r="33" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4271,18 +4301,16 @@
         <v>9</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>672</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>696</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="M33" s="5"/>
       <c r="N33" s="5"/>
       <c r="O33" s="5"/>
       <c r="P33" s="5"/>
       <c r="Q33" s="5"/>
       <c r="R33" s="5"/>
       <c r="S33" s="5" t="s">
-        <v>537</v>
+        <v>735</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4311,9 +4339,11 @@
         <v>571</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J34" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K34" s="5" t="s">
         <v>547</v>
       </c>
@@ -4326,7 +4356,9 @@
       <c r="P34" s="5"/>
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
+      <c r="S34" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
@@ -4357,24 +4389,22 @@
         <v>539</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>676</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>685</v>
-      </c>
+        <v>672</v>
+      </c>
+      <c r="M35" s="5"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
       <c r="S35" s="5" t="s">
-        <v>760</v>
+        <v>736</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4403,9 +4433,11 @@
         <v>573</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J36" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K36" s="5" t="s">
         <v>547</v>
       </c>
@@ -4418,7 +4450,9 @@
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
+      <c r="S36" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
@@ -4448,7 +4482,9 @@
       <c r="I37" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="J37" s="5"/>
+      <c r="J37" s="5" t="s">
+        <v>543</v>
+      </c>
       <c r="K37" s="5" t="s">
         <v>543</v>
       </c>
@@ -4459,7 +4495,9 @@
       <c r="P37" s="5"/>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
-      <c r="S37" s="5"/>
+      <c r="S37" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
@@ -4490,24 +4528,22 @@
         <v>539</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="K38" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L38" s="5" t="s">
-        <v>698</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>699</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="M38" s="5"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
       <c r="S38" s="5" t="s">
-        <v>763</v>
+        <v>737</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4536,9 +4572,11 @@
         <v>576</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J39" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K39" s="5" t="s">
         <v>547</v>
       </c>
@@ -4551,7 +4589,9 @@
       <c r="P39" s="5"/>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
-      <c r="S39" s="5"/>
+      <c r="S39" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
@@ -4582,24 +4622,22 @@
         <v>539</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="K40" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>698</v>
-      </c>
-      <c r="M40" s="5" t="s">
         <v>685</v>
       </c>
+      <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5"/>
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
       <c r="S40" s="5" t="s">
-        <v>763</v>
+        <v>738</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -4628,9 +4666,11 @@
         <v>578</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J41" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K41" s="5" t="s">
         <v>547</v>
       </c>
@@ -4643,7 +4683,9 @@
       <c r="P41" s="5"/>
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
+      <c r="S41" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
@@ -4671,9 +4713,11 @@
         <v>579</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J42" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K42" s="5" t="s">
         <v>547</v>
       </c>
@@ -4686,7 +4730,9 @@
       <c r="P42" s="5"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
+      <c r="S42" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
@@ -4714,24 +4760,26 @@
         <v>580</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J43" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K43" s="5" t="s">
         <v>547</v>
       </c>
       <c r="L43" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M43" s="5" t="s">
-        <v>700</v>
-      </c>
+      <c r="M43" s="5"/>
       <c r="N43" s="5"/>
       <c r="O43" s="5"/>
       <c r="P43" s="5"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
+      <c r="S43" s="5" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="44" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
@@ -4761,20 +4809,22 @@
       <c r="I44" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="J44" s="5"/>
+      <c r="J44" s="5" t="s">
+        <v>543</v>
+      </c>
       <c r="K44" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L44" s="5"/>
-      <c r="M44" s="5" t="s">
-        <v>701</v>
-      </c>
+      <c r="M44" s="5"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="5"/>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
+      <c r="S44" s="5" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="45" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
@@ -4802,9 +4852,11 @@
         <v>582</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J45" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K45" s="5" t="s">
         <v>547</v>
       </c>
@@ -4817,7 +4869,9 @@
       <c r="P45" s="5"/>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
+      <c r="S45" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
@@ -4845,24 +4899,26 @@
         <v>583</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J46" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K46" s="5" t="s">
         <v>547</v>
       </c>
       <c r="L46" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M46" s="5" t="s">
-        <v>685</v>
-      </c>
+      <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="P46" s="5"/>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
+      <c r="S46" s="5" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="47" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
@@ -4890,24 +4946,26 @@
         <v>584</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J47" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K47" s="5" t="s">
         <v>547</v>
       </c>
       <c r="L47" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M47" s="5" t="s">
-        <v>702</v>
-      </c>
+      <c r="M47" s="5"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="5"/>
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
+      <c r="S47" s="5" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="48" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
@@ -4935,24 +4993,26 @@
         <v>585</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J48" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K48" s="5" t="s">
         <v>547</v>
       </c>
       <c r="L48" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M48" s="5" t="s">
-        <v>685</v>
-      </c>
+      <c r="M48" s="5"/>
       <c r="N48" s="5"/>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
+      <c r="S48" s="5" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="49" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
@@ -4983,24 +5043,22 @@
         <v>587</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="K49" s="5" t="s">
         <v>663</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>703</v>
-      </c>
-      <c r="M49" s="5" t="s">
-        <v>704</v>
-      </c>
+        <v>689</v>
+      </c>
+      <c r="M49" s="5"/>
       <c r="N49" s="5"/>
       <c r="O49" s="5"/>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
       <c r="R49" s="5"/>
       <c r="S49" s="5" t="s">
-        <v>692</v>
+        <v>739</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5029,9 +5087,11 @@
         <v>588</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J50" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K50" s="5" t="s">
         <v>547</v>
       </c>
@@ -5044,7 +5104,9 @@
       <c r="P50" s="5"/>
       <c r="Q50" s="5"/>
       <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
+      <c r="S50" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
@@ -5075,24 +5137,22 @@
         <v>539</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="K51" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="M51" s="5" t="s">
-        <v>705</v>
-      </c>
+        <v>674</v>
+      </c>
+      <c r="M51" s="5"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="P51" s="5"/>
       <c r="Q51" s="5"/>
       <c r="R51" s="5"/>
       <c r="S51" s="5" t="s">
-        <v>761</v>
+        <v>740</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5130,18 +5190,16 @@
         <v>9</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>706</v>
-      </c>
-      <c r="M52" s="5" t="s">
-        <v>707</v>
-      </c>
+        <v>690</v>
+      </c>
+      <c r="M52" s="5"/>
       <c r="N52" s="5"/>
       <c r="O52" s="5"/>
       <c r="P52" s="5"/>
       <c r="Q52" s="5"/>
       <c r="R52" s="5"/>
       <c r="S52" s="5" t="s">
-        <v>539</v>
+        <v>741</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5179,7 +5237,7 @@
         <v>9</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
@@ -5188,7 +5246,7 @@
       <c r="Q53" s="5"/>
       <c r="R53" s="5"/>
       <c r="S53" s="5" t="s">
-        <v>537</v>
+        <v>718</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5220,13 +5278,13 @@
         <v>539</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="K54" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
@@ -5235,7 +5293,7 @@
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
       <c r="S54" s="5" t="s">
-        <v>760</v>
+        <v>725</v>
       </c>
     </row>
     <row r="55" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5267,13 +5325,13 @@
         <v>539</v>
       </c>
       <c r="J55" s="5" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="K55" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L55" s="5" t="s">
-        <v>709</v>
+        <v>692</v>
       </c>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
@@ -5282,7 +5340,7 @@
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
       <c r="S55" s="5" t="s">
-        <v>708</v>
+        <v>742</v>
       </c>
     </row>
     <row r="56" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5311,9 +5369,11 @@
         <v>594</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J56" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K56" s="5" t="s">
         <v>547</v>
       </c>
@@ -5326,7 +5386,9 @@
       <c r="P56" s="5"/>
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
+      <c r="S56" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
@@ -5363,18 +5425,16 @@
         <v>663</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="M57" s="5" t="s">
-        <v>711</v>
-      </c>
+        <v>693</v>
+      </c>
+      <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
       <c r="P57" s="5"/>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
       <c r="S57" s="5" t="s">
-        <v>587</v>
+        <v>743</v>
       </c>
     </row>
     <row r="58" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5403,9 +5463,11 @@
         <v>596</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J58" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K58" s="5" t="s">
         <v>547</v>
       </c>
@@ -5418,7 +5480,9 @@
       <c r="P58" s="5"/>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
+      <c r="S58" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
@@ -5455,7 +5519,7 @@
         <v>8</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
@@ -5464,7 +5528,7 @@
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
       <c r="S59" s="5" t="s">
-        <v>539</v>
+        <v>744</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5502,18 +5566,16 @@
         <v>663</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="M60" s="5" t="s">
-        <v>713</v>
-      </c>
+        <v>693</v>
+      </c>
+      <c r="M60" s="5"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
       <c r="S60" s="5" t="s">
-        <v>587</v>
+        <v>745</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5542,9 +5604,11 @@
         <v>598</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J61" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K61" s="5" t="s">
         <v>547</v>
       </c>
@@ -5557,7 +5621,9 @@
       <c r="P61" s="5"/>
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
-      <c r="S61" s="5"/>
+      <c r="S61" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
@@ -5585,24 +5651,26 @@
         <v>599</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J62" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K62" s="5" t="s">
         <v>547</v>
       </c>
       <c r="L62" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M62" s="5" t="s">
-        <v>714</v>
-      </c>
+      <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
       <c r="P62" s="5"/>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
+      <c r="S62" s="5" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="63" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
@@ -5639,7 +5707,7 @@
         <v>9</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
@@ -5648,7 +5716,7 @@
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
       <c r="S63" s="5" t="s">
-        <v>537</v>
+        <v>718</v>
       </c>
     </row>
     <row r="64" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5677,9 +5745,11 @@
         <v>601</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J64" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K64" s="5" t="s">
         <v>547</v>
       </c>
@@ -5692,7 +5762,9 @@
       <c r="P64" s="5"/>
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
+      <c r="S64" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
@@ -5729,18 +5801,16 @@
         <v>9</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>672</v>
-      </c>
-      <c r="M65" s="5" t="s">
-        <v>671</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="M65" s="5"/>
       <c r="N65" s="5"/>
       <c r="O65" s="5"/>
       <c r="P65" s="5"/>
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
       <c r="S65" s="5" t="s">
-        <v>537</v>
+        <v>733</v>
       </c>
     </row>
     <row r="66" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5772,24 +5842,22 @@
         <v>539</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="K66" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>683</v>
-      </c>
-      <c r="M66" s="5" t="s">
-        <v>681</v>
-      </c>
+        <v>676</v>
+      </c>
+      <c r="M66" s="5"/>
       <c r="N66" s="5"/>
       <c r="O66" s="5"/>
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
       <c r="S66" s="5" t="s">
-        <v>762</v>
+        <v>746</v>
       </c>
     </row>
     <row r="67" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5818,24 +5886,26 @@
         <v>604</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J67" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K67" s="5" t="s">
         <v>547</v>
       </c>
       <c r="L67" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M67" s="5" t="s">
-        <v>685</v>
-      </c>
+      <c r="M67" s="5"/>
       <c r="N67" s="5"/>
       <c r="O67" s="5"/>
       <c r="P67" s="5"/>
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
+      <c r="S67" s="5" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="68" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
@@ -5866,13 +5936,13 @@
         <v>539</v>
       </c>
       <c r="J68" s="5" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="K68" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>709</v>
+        <v>692</v>
       </c>
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
@@ -5881,7 +5951,7 @@
       <c r="Q68" s="5"/>
       <c r="R68" s="5"/>
       <c r="S68" s="5" t="s">
-        <v>708</v>
+        <v>742</v>
       </c>
     </row>
     <row r="69" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5913,24 +5983,22 @@
         <v>539</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>715</v>
+        <v>696</v>
       </c>
       <c r="K69" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>716</v>
-      </c>
-      <c r="M69" s="5" t="s">
-        <v>717</v>
-      </c>
+        <v>697</v>
+      </c>
+      <c r="M69" s="5"/>
       <c r="N69" s="5"/>
       <c r="O69" s="5"/>
       <c r="P69" s="5"/>
       <c r="Q69" s="5"/>
       <c r="R69" s="5"/>
       <c r="S69" s="5" t="s">
-        <v>715</v>
+        <v>747</v>
       </c>
     </row>
     <row r="70" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -5959,9 +6027,11 @@
         <v>606</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J70" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K70" s="5" t="s">
         <v>547</v>
       </c>
@@ -5974,7 +6044,9 @@
       <c r="P70" s="5"/>
       <c r="Q70" s="5"/>
       <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
+      <c r="S70" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
@@ -6002,9 +6074,11 @@
         <v>607</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J71" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K71" s="5" t="s">
         <v>547</v>
       </c>
@@ -6017,7 +6091,9 @@
       <c r="P71" s="5"/>
       <c r="Q71" s="5"/>
       <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
+      <c r="S71" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
@@ -6045,9 +6121,11 @@
         <v>608</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J72" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K72" s="5" t="s">
         <v>547</v>
       </c>
@@ -6060,7 +6138,9 @@
       <c r="P72" s="5"/>
       <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
-      <c r="S72" s="5"/>
+      <c r="S72" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
@@ -6088,9 +6168,11 @@
         <v>609</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J73" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K73" s="5" t="s">
         <v>547</v>
       </c>
@@ -6103,7 +6185,9 @@
       <c r="P73" s="5"/>
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
+      <c r="S73" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
@@ -6134,24 +6218,22 @@
         <v>539</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="K74" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="M74" s="5" t="s">
-        <v>718</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="M74" s="5"/>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
       <c r="P74" s="5"/>
       <c r="Q74" s="5"/>
       <c r="R74" s="5"/>
       <c r="S74" s="5" t="s">
-        <v>759</v>
+        <v>748</v>
       </c>
     </row>
     <row r="75" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6180,9 +6262,11 @@
         <v>611</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J75" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K75" s="5" t="s">
         <v>547</v>
       </c>
@@ -6195,7 +6279,9 @@
       <c r="P75" s="5"/>
       <c r="Q75" s="5"/>
       <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
+      <c r="S75" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
@@ -6223,9 +6309,11 @@
         <v>612</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J76" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K76" s="5" t="s">
         <v>547</v>
       </c>
@@ -6238,7 +6326,9 @@
       <c r="P76" s="5"/>
       <c r="Q76" s="5"/>
       <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
+      <c r="S76" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
@@ -6269,13 +6359,13 @@
         <v>539</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="K77" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L77" s="5" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
@@ -6284,7 +6374,7 @@
       <c r="Q77" s="5"/>
       <c r="R77" s="5"/>
       <c r="S77" s="5" t="s">
-        <v>694</v>
+        <v>732</v>
       </c>
     </row>
     <row r="78" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6322,7 +6412,7 @@
         <v>9</v>
       </c>
       <c r="L78" s="5" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
@@ -6331,7 +6421,7 @@
       <c r="Q78" s="5"/>
       <c r="R78" s="5"/>
       <c r="S78" s="5" t="s">
-        <v>537</v>
+        <v>718</v>
       </c>
     </row>
     <row r="79" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6360,9 +6450,11 @@
         <v>615</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J79" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K79" s="5" t="s">
         <v>547</v>
       </c>
@@ -6375,7 +6467,9 @@
       <c r="P79" s="5"/>
       <c r="Q79" s="5"/>
       <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
+      <c r="S79" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
@@ -6406,24 +6500,22 @@
         <v>539</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="K80" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="M80" s="5" t="s">
-        <v>719</v>
-      </c>
+        <v>674</v>
+      </c>
+      <c r="M80" s="5"/>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
       <c r="P80" s="5"/>
       <c r="Q80" s="5"/>
       <c r="R80" s="5"/>
       <c r="S80" s="5" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
     </row>
     <row r="81" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6455,24 +6547,22 @@
         <v>539</v>
       </c>
       <c r="J81" s="5" t="s">
-        <v>720</v>
+        <v>698</v>
       </c>
       <c r="K81" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L81" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="M81" s="5" t="s">
-        <v>722</v>
-      </c>
+        <v>699</v>
+      </c>
+      <c r="M81" s="5"/>
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
       <c r="P81" s="5"/>
       <c r="Q81" s="5"/>
       <c r="R81" s="5"/>
       <c r="S81" s="5" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
     </row>
     <row r="82" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6504,24 +6594,22 @@
         <v>539</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="K82" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L82" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="M82" s="5" t="s">
-        <v>696</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="M82" s="5"/>
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
       <c r="P82" s="5"/>
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
       <c r="S82" s="5" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
     </row>
     <row r="83" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6553,13 +6641,13 @@
         <v>539</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>723</v>
+        <v>700</v>
       </c>
       <c r="K83" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L83" s="5" t="s">
-        <v>724</v>
+        <v>701</v>
       </c>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
@@ -6568,7 +6656,7 @@
       <c r="Q83" s="5"/>
       <c r="R83" s="5"/>
       <c r="S83" s="5" t="s">
-        <v>723</v>
+        <v>752</v>
       </c>
     </row>
     <row r="84" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6600,24 +6688,22 @@
         <v>539</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="K84" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L84" s="5" t="s">
-        <v>667</v>
-      </c>
-      <c r="M84" s="5" t="s">
-        <v>725</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="M84" s="5"/>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
       <c r="P84" s="5"/>
       <c r="Q84" s="5"/>
       <c r="R84" s="5"/>
       <c r="S84" s="5" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="85" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6649,24 +6735,22 @@
         <v>539</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="K85" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L85" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="M85" s="5" t="s">
-        <v>685</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="M85" s="5"/>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
       <c r="P85" s="5"/>
       <c r="Q85" s="5"/>
       <c r="R85" s="5"/>
       <c r="S85" s="5" t="s">
-        <v>759</v>
+        <v>729</v>
       </c>
     </row>
     <row r="86" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6695,9 +6779,11 @@
         <v>622</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J86" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K86" s="5" t="s">
         <v>547</v>
       </c>
@@ -6710,7 +6796,9 @@
       <c r="P86" s="5"/>
       <c r="Q86" s="5"/>
       <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
+      <c r="S86" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
@@ -6738,24 +6826,26 @@
         <v>580</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J87" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K87" s="5" t="s">
         <v>547</v>
       </c>
       <c r="L87" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M87" s="5" t="s">
-        <v>726</v>
-      </c>
+      <c r="M87" s="5"/>
       <c r="N87" s="5"/>
       <c r="O87" s="5"/>
       <c r="P87" s="5"/>
       <c r="Q87" s="5"/>
       <c r="R87" s="5"/>
-      <c r="S87" s="5"/>
+      <c r="S87" s="5" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="88" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
@@ -6792,18 +6882,16 @@
         <v>9</v>
       </c>
       <c r="L88" s="5" t="s">
-        <v>727</v>
-      </c>
-      <c r="M88" s="5" t="s">
-        <v>728</v>
-      </c>
+        <v>703</v>
+      </c>
+      <c r="M88" s="5"/>
       <c r="N88" s="5"/>
       <c r="O88" s="5"/>
       <c r="P88" s="5"/>
       <c r="Q88" s="5"/>
       <c r="R88" s="5"/>
       <c r="S88" s="5" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="89" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6835,13 +6923,13 @@
         <v>539</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="K89" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L89" s="5" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
@@ -6850,7 +6938,7 @@
       <c r="Q89" s="5"/>
       <c r="R89" s="5"/>
       <c r="S89" s="5" t="s">
-        <v>689</v>
+        <v>755</v>
       </c>
     </row>
     <row r="90" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6879,9 +6967,11 @@
         <v>625</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J90" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K90" s="5" t="s">
         <v>547</v>
       </c>
@@ -6894,7 +6984,9 @@
       <c r="P90" s="5"/>
       <c r="Q90" s="5"/>
       <c r="R90" s="5"/>
-      <c r="S90" s="5"/>
+      <c r="S90" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
@@ -6925,24 +7017,22 @@
         <v>539</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="K91" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L91" s="5" t="s">
-        <v>709</v>
-      </c>
-      <c r="M91" s="5" t="s">
-        <v>729</v>
-      </c>
+        <v>692</v>
+      </c>
+      <c r="M91" s="5"/>
       <c r="N91" s="5"/>
       <c r="O91" s="5"/>
       <c r="P91" s="5"/>
       <c r="Q91" s="5"/>
       <c r="R91" s="5"/>
       <c r="S91" s="5" t="s">
-        <v>708</v>
+        <v>756</v>
       </c>
     </row>
     <row r="92" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -6974,24 +7064,22 @@
         <v>539</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="K92" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L92" s="5" t="s">
-        <v>676</v>
-      </c>
-      <c r="M92" s="5" t="s">
-        <v>730</v>
-      </c>
+        <v>672</v>
+      </c>
+      <c r="M92" s="5"/>
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
       <c r="P92" s="5"/>
       <c r="Q92" s="5"/>
       <c r="R92" s="5"/>
       <c r="S92" s="5" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="93" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7029,18 +7117,16 @@
         <v>9</v>
       </c>
       <c r="L93" s="5" t="s">
-        <v>672</v>
-      </c>
-      <c r="M93" s="5" t="s">
-        <v>731</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="M93" s="5"/>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
       <c r="P93" s="5"/>
       <c r="Q93" s="5"/>
       <c r="R93" s="5"/>
       <c r="S93" s="5" t="s">
-        <v>537</v>
+        <v>758</v>
       </c>
     </row>
     <row r="94" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7069,9 +7155,11 @@
         <v>629</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J94" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K94" s="5" t="s">
         <v>547</v>
       </c>
@@ -7084,7 +7172,9 @@
       <c r="P94" s="5"/>
       <c r="Q94" s="5"/>
       <c r="R94" s="5"/>
-      <c r="S94" s="5"/>
+      <c r="S94" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
@@ -7115,17 +7205,15 @@
         <v>539</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="K95" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L95" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="M95" s="5" t="s">
-        <v>732</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="M95" s="5"/>
       <c r="N95" s="5"/>
       <c r="O95" s="5"/>
       <c r="P95" s="5"/>
@@ -7164,24 +7252,22 @@
         <v>539</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="K96" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L96" s="5" t="s">
-        <v>676</v>
-      </c>
-      <c r="M96" s="5" t="s">
-        <v>730</v>
-      </c>
+        <v>672</v>
+      </c>
+      <c r="M96" s="5"/>
       <c r="N96" s="5"/>
       <c r="O96" s="5"/>
       <c r="P96" s="5"/>
       <c r="Q96" s="5"/>
       <c r="R96" s="5"/>
       <c r="S96" s="5" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="97" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7213,24 +7299,22 @@
         <v>539</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="K97" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L97" s="5" t="s">
-        <v>683</v>
-      </c>
-      <c r="M97" s="5" t="s">
-        <v>733</v>
-      </c>
+        <v>676</v>
+      </c>
+      <c r="M97" s="5"/>
       <c r="N97" s="5"/>
       <c r="O97" s="5"/>
       <c r="P97" s="5"/>
       <c r="Q97" s="5"/>
       <c r="R97" s="5"/>
       <c r="S97" s="5" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="98" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7268,18 +7352,16 @@
         <v>663</v>
       </c>
       <c r="L98" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="M98" s="5" t="s">
-        <v>734</v>
-      </c>
+        <v>693</v>
+      </c>
+      <c r="M98" s="5"/>
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
       <c r="P98" s="5"/>
       <c r="Q98" s="5"/>
       <c r="R98" s="5"/>
       <c r="S98" s="5" t="s">
-        <v>587</v>
+        <v>761</v>
       </c>
     </row>
     <row r="99" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7317,18 +7399,16 @@
         <v>9</v>
       </c>
       <c r="L99" s="5" t="s">
-        <v>672</v>
-      </c>
-      <c r="M99" s="5" t="s">
-        <v>735</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="M99" s="5"/>
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
       <c r="P99" s="5"/>
       <c r="Q99" s="5"/>
       <c r="R99" s="5"/>
       <c r="S99" s="5" t="s">
-        <v>537</v>
+        <v>762</v>
       </c>
     </row>
     <row r="100" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7360,13 +7440,13 @@
         <v>539</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="K100" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L100" s="5" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="M100" s="5"/>
       <c r="N100" s="5"/>
@@ -7375,7 +7455,7 @@
       <c r="Q100" s="5"/>
       <c r="R100" s="5"/>
       <c r="S100" s="5" t="s">
-        <v>759</v>
+        <v>724</v>
       </c>
     </row>
     <row r="101" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7404,9 +7484,11 @@
         <v>634</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J101" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K101" s="5" t="s">
         <v>547</v>
       </c>
@@ -7419,7 +7501,9 @@
       <c r="P101" s="5"/>
       <c r="Q101" s="5"/>
       <c r="R101" s="5"/>
-      <c r="S101" s="5"/>
+      <c r="S101" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
@@ -7450,13 +7534,13 @@
         <v>539</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="K102" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L102" s="5" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="M102" s="5"/>
       <c r="N102" s="5"/>
@@ -7465,7 +7549,7 @@
       <c r="Q102" s="5"/>
       <c r="R102" s="5"/>
       <c r="S102" s="5" t="s">
-        <v>760</v>
+        <v>725</v>
       </c>
     </row>
     <row r="103" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7503,7 +7587,7 @@
         <v>9</v>
       </c>
       <c r="L103" s="5" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="M103" s="5"/>
       <c r="N103" s="5"/>
@@ -7512,7 +7596,7 @@
       <c r="Q103" s="5"/>
       <c r="R103" s="5"/>
       <c r="S103" s="5" t="s">
-        <v>537</v>
+        <v>718</v>
       </c>
     </row>
     <row r="104" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7550,7 +7634,7 @@
         <v>9</v>
       </c>
       <c r="L104" s="5" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="M104" s="5"/>
       <c r="N104" s="5"/>
@@ -7559,7 +7643,7 @@
       <c r="Q104" s="5"/>
       <c r="R104" s="5"/>
       <c r="S104" s="5" t="s">
-        <v>537</v>
+        <v>718</v>
       </c>
     </row>
     <row r="105" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7591,13 +7675,13 @@
         <v>539</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="K105" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L105" s="5" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
@@ -7606,7 +7690,7 @@
       <c r="Q105" s="5"/>
       <c r="R105" s="5"/>
       <c r="S105" s="5" t="s">
-        <v>761</v>
+        <v>734</v>
       </c>
     </row>
     <row r="106" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7635,9 +7719,11 @@
         <v>639</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J106" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K106" s="5" t="s">
         <v>547</v>
       </c>
@@ -7650,7 +7736,9 @@
       <c r="P106" s="5"/>
       <c r="Q106" s="5"/>
       <c r="R106" s="5"/>
-      <c r="S106" s="5"/>
+      <c r="S106" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
@@ -7678,9 +7766,11 @@
         <v>640</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J107" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K107" s="5" t="s">
         <v>547</v>
       </c>
@@ -7693,7 +7783,9 @@
       <c r="P107" s="5"/>
       <c r="Q107" s="5"/>
       <c r="R107" s="5"/>
-      <c r="S107" s="5"/>
+      <c r="S107" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
@@ -7721,9 +7813,11 @@
         <v>641</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J108" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K108" s="5" t="s">
         <v>547</v>
       </c>
@@ -7736,7 +7830,9 @@
       <c r="P108" s="5"/>
       <c r="Q108" s="5"/>
       <c r="R108" s="5"/>
-      <c r="S108" s="5"/>
+      <c r="S108" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
@@ -7764,9 +7860,11 @@
         <v>642</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J109" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K109" s="5" t="s">
         <v>547</v>
       </c>
@@ -7779,7 +7877,9 @@
       <c r="P109" s="5"/>
       <c r="Q109" s="5"/>
       <c r="R109" s="5"/>
-      <c r="S109" s="5"/>
+      <c r="S109" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
@@ -7807,9 +7907,11 @@
         <v>643</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J110" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K110" s="5" t="s">
         <v>547</v>
       </c>
@@ -7822,7 +7924,9 @@
       <c r="P110" s="5"/>
       <c r="Q110" s="5"/>
       <c r="R110" s="5"/>
-      <c r="S110" s="5"/>
+      <c r="S110" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
@@ -7853,13 +7957,13 @@
         <v>539</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>723</v>
+        <v>700</v>
       </c>
       <c r="K111" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L111" s="5" t="s">
-        <v>724</v>
+        <v>701</v>
       </c>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
@@ -7868,7 +7972,7 @@
       <c r="Q111" s="5"/>
       <c r="R111" s="5"/>
       <c r="S111" s="5" t="s">
-        <v>723</v>
+        <v>752</v>
       </c>
     </row>
     <row r="112" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7900,13 +8004,13 @@
         <v>539</v>
       </c>
       <c r="J112" s="5" t="s">
-        <v>736</v>
+        <v>704</v>
       </c>
       <c r="K112" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L112" s="5" t="s">
-        <v>737</v>
+        <v>705</v>
       </c>
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
@@ -7915,7 +8019,7 @@
       <c r="Q112" s="5"/>
       <c r="R112" s="5"/>
       <c r="S112" s="5" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="113" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7947,24 +8051,22 @@
         <v>539</v>
       </c>
       <c r="J113" s="5" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="K113" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L113" s="5" t="s">
-        <v>667</v>
-      </c>
-      <c r="M113" s="5" t="s">
-        <v>738</v>
-      </c>
+        <v>666</v>
+      </c>
+      <c r="M113" s="5"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
       <c r="P113" s="5"/>
       <c r="Q113" s="5"/>
       <c r="R113" s="5"/>
       <c r="S113" s="5" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
     </row>
     <row r="114" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -7996,24 +8098,22 @@
         <v>539</v>
       </c>
       <c r="J114" s="5" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="K114" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L114" s="5" t="s">
-        <v>709</v>
-      </c>
-      <c r="M114" s="5" t="s">
-        <v>739</v>
-      </c>
+        <v>692</v>
+      </c>
+      <c r="M114" s="5"/>
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
       <c r="P114" s="5"/>
       <c r="Q114" s="5"/>
       <c r="R114" s="5"/>
       <c r="S114" s="5" t="s">
-        <v>708</v>
+        <v>765</v>
       </c>
     </row>
     <row r="115" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8051,7 +8151,7 @@
         <v>9</v>
       </c>
       <c r="L115" s="5" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="M115" s="5"/>
       <c r="N115" s="5"/>
@@ -8060,7 +8160,7 @@
       <c r="Q115" s="5"/>
       <c r="R115" s="5"/>
       <c r="S115" s="5" t="s">
-        <v>537</v>
+        <v>718</v>
       </c>
     </row>
     <row r="116" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8092,24 +8192,22 @@
         <v>539</v>
       </c>
       <c r="J116" s="5" t="s">
-        <v>720</v>
+        <v>698</v>
       </c>
       <c r="K116" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L116" s="5" t="s">
-        <v>721</v>
-      </c>
-      <c r="M116" s="5" t="s">
-        <v>740</v>
-      </c>
+        <v>699</v>
+      </c>
+      <c r="M116" s="5"/>
       <c r="N116" s="5"/>
       <c r="O116" s="5"/>
       <c r="P116" s="5"/>
       <c r="Q116" s="5"/>
       <c r="R116" s="5"/>
       <c r="S116" s="5" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="117" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8138,9 +8236,11 @@
         <v>649</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J117" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K117" s="5" t="s">
         <v>547</v>
       </c>
@@ -8153,7 +8253,9 @@
       <c r="P117" s="5"/>
       <c r="Q117" s="5"/>
       <c r="R117" s="5"/>
-      <c r="S117" s="5"/>
+      <c r="S117" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="118" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
@@ -8184,24 +8286,22 @@
         <v>539</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="K118" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L118" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="M118" s="5" t="s">
-        <v>735</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="M118" s="5"/>
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
       <c r="P118" s="5"/>
       <c r="Q118" s="5"/>
       <c r="R118" s="5"/>
       <c r="S118" s="5" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
     </row>
     <row r="119" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8233,24 +8333,22 @@
         <v>539</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>741</v>
+        <v>706</v>
       </c>
       <c r="K119" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L119" s="5" t="s">
-        <v>742</v>
-      </c>
-      <c r="M119" s="5" t="s">
-        <v>735</v>
-      </c>
+        <v>707</v>
+      </c>
+      <c r="M119" s="5"/>
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
       <c r="P119" s="5"/>
       <c r="Q119" s="5"/>
       <c r="R119" s="5"/>
       <c r="S119" s="5" t="s">
-        <v>741</v>
+        <v>768</v>
       </c>
     </row>
     <row r="120" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8279,24 +8377,26 @@
         <v>584</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J120" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K120" s="5" t="s">
         <v>547</v>
       </c>
       <c r="L120" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="M120" s="5" t="s">
-        <v>743</v>
-      </c>
+      <c r="M120" s="5"/>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
       <c r="P120" s="5"/>
       <c r="Q120" s="5"/>
       <c r="R120" s="5"/>
-      <c r="S120" s="5"/>
+      <c r="S120" s="5" t="s">
+        <v>708</v>
+      </c>
     </row>
     <row r="121" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
@@ -8333,18 +8433,16 @@
         <v>8</v>
       </c>
       <c r="L121" s="5" t="s">
-        <v>712</v>
-      </c>
-      <c r="M121" s="5" t="s">
-        <v>744</v>
-      </c>
+        <v>694</v>
+      </c>
+      <c r="M121" s="5"/>
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
       <c r="P121" s="5"/>
       <c r="Q121" s="5"/>
       <c r="R121" s="5"/>
       <c r="S121" s="5" t="s">
-        <v>539</v>
+        <v>769</v>
       </c>
     </row>
     <row r="122" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8376,24 +8474,22 @@
         <v>587</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="K122" s="5" t="s">
         <v>663</v>
       </c>
       <c r="L122" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="M122" s="5" t="s">
-        <v>746</v>
-      </c>
+        <v>709</v>
+      </c>
+      <c r="M122" s="5"/>
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
       <c r="P122" s="5"/>
       <c r="Q122" s="5"/>
       <c r="R122" s="5"/>
       <c r="S122" s="5" t="s">
-        <v>761</v>
+        <v>770</v>
       </c>
     </row>
     <row r="123" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8424,20 +8520,22 @@
       <c r="I123" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="J123" s="5"/>
+      <c r="J123" s="5" t="s">
+        <v>543</v>
+      </c>
       <c r="K123" s="5" t="s">
         <v>543</v>
       </c>
       <c r="L123" s="5"/>
-      <c r="M123" s="5" t="s">
-        <v>747</v>
-      </c>
+      <c r="M123" s="5"/>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
       <c r="P123" s="5"/>
       <c r="Q123" s="5"/>
       <c r="R123" s="5"/>
-      <c r="S123" s="5"/>
+      <c r="S123" s="5" t="s">
+        <v>710</v>
+      </c>
     </row>
     <row r="124" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
@@ -8468,24 +8566,22 @@
         <v>539</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="K124" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L124" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="M124" s="5" t="s">
-        <v>696</v>
-      </c>
+        <v>668</v>
+      </c>
+      <c r="M124" s="5"/>
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
       <c r="P124" s="5"/>
       <c r="Q124" s="5"/>
       <c r="R124" s="5"/>
       <c r="S124" s="5" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
     </row>
     <row r="125" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8523,18 +8619,16 @@
         <v>9</v>
       </c>
       <c r="L125" s="5" t="s">
-        <v>672</v>
-      </c>
-      <c r="M125" s="5" t="s">
-        <v>748</v>
-      </c>
+        <v>669</v>
+      </c>
+      <c r="M125" s="5"/>
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
       <c r="P125" s="5"/>
       <c r="Q125" s="5"/>
       <c r="R125" s="5"/>
       <c r="S125" s="5" t="s">
-        <v>537</v>
+        <v>771</v>
       </c>
     </row>
     <row r="126" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8566,24 +8660,22 @@
         <v>539</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="K126" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L126" s="5" t="s">
-        <v>698</v>
-      </c>
-      <c r="M126" s="5" t="s">
-        <v>749</v>
-      </c>
+        <v>685</v>
+      </c>
+      <c r="M126" s="5"/>
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
       <c r="P126" s="5"/>
       <c r="Q126" s="5"/>
       <c r="R126" s="5"/>
       <c r="S126" s="5" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
     </row>
     <row r="127" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8612,9 +8704,11 @@
         <v>657</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="J127" s="5"/>
+        <v>539</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>587</v>
+      </c>
       <c r="K127" s="5" t="s">
         <v>547</v>
       </c>
@@ -8627,7 +8721,9 @@
       <c r="P127" s="5"/>
       <c r="Q127" s="5"/>
       <c r="R127" s="5"/>
-      <c r="S127" s="5"/>
+      <c r="S127" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="128" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
@@ -8658,24 +8754,22 @@
         <v>539</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>750</v>
+        <v>711</v>
       </c>
       <c r="K128" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L128" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="M128" s="5" t="s">
-        <v>752</v>
-      </c>
+        <v>712</v>
+      </c>
+      <c r="M128" s="5"/>
       <c r="N128" s="5"/>
       <c r="O128" s="5"/>
       <c r="P128" s="5"/>
       <c r="Q128" s="5"/>
       <c r="R128" s="5"/>
       <c r="S128" s="5" t="s">
-        <v>750</v>
+        <v>773</v>
       </c>
     </row>
     <row r="129" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8707,24 +8801,22 @@
         <v>539</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>753</v>
+        <v>713</v>
       </c>
       <c r="K129" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L129" s="5" t="s">
-        <v>754</v>
-      </c>
-      <c r="M129" s="5" t="s">
-        <v>755</v>
-      </c>
+        <v>714</v>
+      </c>
+      <c r="M129" s="5"/>
       <c r="N129" s="5"/>
       <c r="O129" s="5"/>
       <c r="P129" s="5"/>
       <c r="Q129" s="5"/>
       <c r="R129" s="5"/>
       <c r="S129" s="5" t="s">
-        <v>766</v>
+        <v>776</v>
       </c>
     </row>
     <row r="130" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8756,24 +8848,22 @@
         <v>539</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="K130" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L130" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="M130" s="5" t="s">
-        <v>735</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="M130" s="5"/>
       <c r="N130" s="5"/>
       <c r="O130" s="5"/>
       <c r="P130" s="5"/>
       <c r="Q130" s="5"/>
       <c r="R130" s="5"/>
       <c r="S130" s="5" t="s">
-        <v>692</v>
+        <v>774</v>
       </c>
     </row>
     <row r="131" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
@@ -8805,24 +8895,22 @@
         <v>539</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>750</v>
+        <v>711</v>
       </c>
       <c r="K131" s="5" t="s">
         <v>9</v>
       </c>
       <c r="L131" s="5" t="s">
-        <v>751</v>
-      </c>
-      <c r="M131" s="5" t="s">
-        <v>756</v>
-      </c>
+        <v>712</v>
+      </c>
+      <c r="M131" s="5"/>
       <c r="N131" s="5"/>
       <c r="O131" s="5"/>
       <c r="P131" s="5"/>
       <c r="Q131" s="5"/>
       <c r="R131" s="5"/>
       <c r="S131" s="5" t="s">
-        <v>750</v>
+        <v>775</v>
       </c>
     </row>
   </sheetData>

--- a/sources/Icelandic_data.xlsx
+++ b/sources/Icelandic_data.xlsx
@@ -2727,7 +2727,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L134" sqref="L134"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -5422,7 +5424,7 @@
         <v>587</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>663</v>
+        <v>8</v>
       </c>
       <c r="L57" s="5" t="s">
         <v>693</v>
@@ -5563,7 +5565,7 @@
         <v>587</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>663</v>
+        <v>8</v>
       </c>
       <c r="L60" s="5" t="s">
         <v>693</v>
@@ -7349,7 +7351,7 @@
         <v>587</v>
       </c>
       <c r="K98" s="5" t="s">
-        <v>663</v>
+        <v>8</v>
       </c>
       <c r="L98" s="5" t="s">
         <v>693</v>
